--- a/rfuse/Archive/128MB_1/summary.xlsx
+++ b/rfuse/Archive/128MB_1/summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehddu\Documents\GitHub\ldy\rfuse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehddu\Documents\GitHub\ldy\rfuse\Archive\128MB_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD993CE-C09A-4896-998F-86E71CBEAD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C7DCB-FC31-449E-B13D-2A797C9F626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9238,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13238,46 +13238,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B180:G180"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B211:G211"/>
     <mergeCell ref="B218:G218"/>
     <mergeCell ref="B224:G224"/>
     <mergeCell ref="B230:G230"/>
     <mergeCell ref="B236:G236"/>
     <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
